--- a/NBA_DFS_Cost_11_3.xlsx
+++ b/NBA_DFS_Cost_11_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3180851D-867B-4775-A84C-1AC828B7F5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C8900C-C3C6-4FD1-B5A2-FE7BAF4579CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2E21B0C3-CBAE-4AC4-B4AE-1CCAE26A23DF}"/>
   </bookViews>
@@ -239,9 +239,6 @@
     <t>Lonnie Walker IV</t>
   </si>
   <si>
-    <t>T.J. McConnell</t>
-  </si>
-  <si>
     <t>Aaron Nesmith</t>
   </si>
   <si>
@@ -761,9 +758,6 @@
     <t>Nikola Jokic</t>
   </si>
   <si>
-    <t>Tyrese Haliburton</t>
-  </si>
-  <si>
     <t>Jimmy Butler</t>
   </si>
   <si>
@@ -783,6 +777,12 @@
   </si>
   <si>
     <t>Trendon WatfordO</t>
+  </si>
+  <si>
+    <t>T.J. McConnellGTD</t>
+  </si>
+  <si>
+    <t>Tyrese HaliburtonGTD</t>
   </si>
 </sst>
 </file>
@@ -1381,8 +1381,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="A183" sqref="A183"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1393,13 +1393,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1">
       <c r="A1" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>237</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>238</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="3" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>4</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="9" spans="1:4" ht="28.5" customHeight="1" thickBot="1">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="13" spans="1:4" ht="28.5" customHeight="1" thickBot="1">
       <c r="A13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>3</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="16" spans="1:4" ht="28.5" customHeight="1" thickBot="1">
       <c r="A16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>0</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="25" spans="1:4" ht="28.5" customHeight="1" thickBot="1">
       <c r="A25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>1</v>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="37" spans="1:4" ht="28.5" customHeight="1" thickBot="1">
       <c r="A37" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>2</v>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="69" spans="1:4" ht="28.5" customHeight="1" thickBot="1">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>246</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>0</v>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="70" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>3</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="71" spans="1:4" ht="28.5" customHeight="1" thickBot="1">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>1</v>
@@ -2245,7 +2245,7 @@
     </row>
     <row r="72" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>2</v>
@@ -2257,7 +2257,7 @@
     </row>
     <row r="73" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>0</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="74" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>3</v>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="75" spans="1:4" ht="43" customHeight="1" thickBot="1">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>1</v>
@@ -2293,7 +2293,7 @@
     </row>
     <row r="76" spans="1:4" ht="16" thickBot="1">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>1</v>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="77" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>3</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="78" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>0</v>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="79" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>1</v>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="80" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>3</v>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="81" spans="1:4" ht="28.5" customHeight="1" thickBot="1">
       <c r="A81" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>3</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="82" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A82" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>0</v>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="83" spans="1:4" ht="28.5" customHeight="1" thickBot="1">
       <c r="A83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>3</v>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="84" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A84" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>4</v>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="85" spans="1:4" ht="28.5" customHeight="1" thickBot="1">
       <c r="A85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>4</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="86" spans="1:4" ht="28.5" customHeight="1" thickBot="1">
       <c r="A86" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>1</v>
@@ -2425,7 +2425,7 @@
     </row>
     <row r="87" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>2</v>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="88" spans="1:4" ht="28.5" customHeight="1" thickBot="1">
       <c r="A88" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>4</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="89" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A89" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>2</v>
@@ -2461,7 +2461,7 @@
     </row>
     <row r="90" spans="1:4" ht="28.5" customHeight="1" thickBot="1">
       <c r="A90" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>4</v>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="91" spans="1:4" ht="16" thickBot="1">
       <c r="A91" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>3</v>
@@ -2485,7 +2485,7 @@
     </row>
     <row r="92" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>4</v>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="93" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>0</v>
@@ -2509,7 +2509,7 @@
     </row>
     <row r="94" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A94" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>0</v>
@@ -2521,7 +2521,7 @@
     </row>
     <row r="95" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A95" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>0</v>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="96" spans="1:4" ht="28.5" customHeight="1" thickBot="1">
       <c r="A96" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>4</v>
@@ -2545,7 +2545,7 @@
     </row>
     <row r="97" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A97" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>4</v>
@@ -2557,7 +2557,7 @@
     </row>
     <row r="98" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A98" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>3</v>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="99" spans="1:4" ht="28.5" customHeight="1" thickBot="1">
       <c r="A99" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>0</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="100" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A100" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>4</v>
@@ -2593,7 +2593,7 @@
     </row>
     <row r="101" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A101" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>1</v>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="102" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A102" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>4</v>
@@ -2617,7 +2617,7 @@
     </row>
     <row r="103" spans="1:4" ht="16" thickBot="1">
       <c r="A103" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>2</v>
@@ -2629,7 +2629,7 @@
     </row>
     <row r="104" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A104" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>0</v>
@@ -2641,7 +2641,7 @@
     </row>
     <row r="105" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A105" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>4</v>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="106" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A106" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>2</v>
@@ -2665,7 +2665,7 @@
     </row>
     <row r="107" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A107" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>4</v>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="108" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A108" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>2</v>
@@ -2689,7 +2689,7 @@
     </row>
     <row r="109" spans="1:4" ht="16" thickBot="1">
       <c r="A109" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>0</v>
@@ -2701,7 +2701,7 @@
     </row>
     <row r="110" spans="1:4" ht="16" thickBot="1">
       <c r="A110" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>3</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="111" spans="1:4" ht="16" thickBot="1">
       <c r="A111" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>1</v>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="112" spans="1:4" ht="16" thickBot="1">
       <c r="A112" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>4</v>
@@ -2737,7 +2737,7 @@
     </row>
     <row r="113" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A113" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>2</v>
@@ -2749,7 +2749,7 @@
     </row>
     <row r="114" spans="1:4" ht="28.5" customHeight="1" thickBot="1">
       <c r="A114" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>0</v>
@@ -2761,7 +2761,7 @@
     </row>
     <row r="115" spans="1:4" ht="28.5" customHeight="1" thickBot="1">
       <c r="A115" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>1</v>
@@ -2773,7 +2773,7 @@
     </row>
     <row r="116" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A116" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>1</v>
@@ -2785,7 +2785,7 @@
     </row>
     <row r="117" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A117" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>1</v>
@@ -2797,7 +2797,7 @@
     </row>
     <row r="118" spans="1:4" ht="16" thickBot="1">
       <c r="A118" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>1</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="119" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A119" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>1</v>
@@ -2821,7 +2821,7 @@
     </row>
     <row r="120" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A120" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>0</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="121" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A121" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>3</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="122" spans="1:4" ht="16" thickBot="1">
       <c r="A122" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>3</v>
@@ -2857,7 +2857,7 @@
     </row>
     <row r="123" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A123" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>4</v>
@@ -2869,7 +2869,7 @@
     </row>
     <row r="124" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A124" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>3</v>
@@ -2881,7 +2881,7 @@
     </row>
     <row r="125" spans="1:4" ht="28.5" customHeight="1" thickBot="1">
       <c r="A125" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>3</v>
@@ -2893,7 +2893,7 @@
     </row>
     <row r="126" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A126" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>0</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="127" spans="1:4" ht="28.5" customHeight="1" thickBot="1">
       <c r="A127" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>1</v>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="128" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A128" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>1</v>
@@ -2929,7 +2929,7 @@
     </row>
     <row r="129" spans="1:4" ht="28.5" customHeight="1" thickBot="1">
       <c r="A129" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>0</v>
@@ -2941,7 +2941,7 @@
     </row>
     <row r="130" spans="1:4" ht="16" thickBot="1">
       <c r="A130" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>4</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="131" spans="1:4" ht="28.5" customHeight="1" thickBot="1">
       <c r="A131" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>2</v>
@@ -2965,7 +2965,7 @@
     </row>
     <row r="132" spans="1:4" ht="28.5" customHeight="1" thickBot="1">
       <c r="A132" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="133" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A133" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>0</v>
@@ -2989,7 +2989,7 @@
     </row>
     <row r="134" spans="1:4" ht="16" thickBot="1">
       <c r="A134" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>2</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="135" spans="1:4" ht="16" thickBot="1">
       <c r="A135" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>3</v>
@@ -3013,7 +3013,7 @@
     </row>
     <row r="136" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A136" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>0</v>
@@ -3025,7 +3025,7 @@
     </row>
     <row r="137" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A137" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>4</v>
@@ -3037,7 +3037,7 @@
     </row>
     <row r="138" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A138" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>2</v>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="139" spans="1:4" ht="16" thickBot="1">
       <c r="A139" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>1</v>
@@ -3061,7 +3061,7 @@
     </row>
     <row r="140" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A140" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>3</v>
@@ -3073,7 +3073,7 @@
     </row>
     <row r="141" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A141" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>1</v>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="142" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A142" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>4</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="143" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A143" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>0</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="144" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A144" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>3</v>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="145" spans="1:4" ht="16" thickBot="1">
       <c r="A145" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>0</v>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="146" spans="1:4" ht="28.5" customHeight="1" thickBot="1">
       <c r="A146" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>4</v>
@@ -3145,7 +3145,7 @@
     </row>
     <row r="147" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A147" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>2</v>
@@ -3157,7 +3157,7 @@
     </row>
     <row r="148" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A148" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>0</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="149" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A149" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>2</v>
@@ -3181,7 +3181,7 @@
     </row>
     <row r="150" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A150" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>4</v>
@@ -3193,7 +3193,7 @@
     </row>
     <row r="151" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A151" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>2</v>
@@ -3205,7 +3205,7 @@
     </row>
     <row r="152" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A152" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>3</v>
@@ -3217,7 +3217,7 @@
     </row>
     <row r="153" spans="1:4" ht="16" thickBot="1">
       <c r="A153" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>2</v>
@@ -3229,7 +3229,7 @@
     </row>
     <row r="154" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A154" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>4</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="155" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A155" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>1</v>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="156" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A156" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>4</v>
@@ -3265,7 +3265,7 @@
     </row>
     <row r="157" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A157" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B157" s="6" t="s">
         <v>1</v>
@@ -3277,7 +3277,7 @@
     </row>
     <row r="158" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A158" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>0</v>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="159" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A159" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>3</v>
@@ -3301,7 +3301,7 @@
     </row>
     <row r="160" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A160" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>1</v>
@@ -3313,7 +3313,7 @@
     </row>
     <row r="161" spans="1:4" ht="28.5" customHeight="1" thickBot="1">
       <c r="A161" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>3</v>
@@ -3325,7 +3325,7 @@
     </row>
     <row r="162" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A162" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B162" s="6" t="s">
         <v>0</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="163" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A163" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>4</v>
@@ -3349,7 +3349,7 @@
     </row>
     <row r="164" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A164" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>2</v>
@@ -3361,7 +3361,7 @@
     </row>
     <row r="165" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A165" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>3</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="166" spans="1:4" ht="28.5" customHeight="1" thickBot="1">
       <c r="A166" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>2</v>
@@ -3385,7 +3385,7 @@
     </row>
     <row r="167" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A167" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>4</v>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="168" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A168" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>3</v>
@@ -3409,7 +3409,7 @@
     </row>
     <row r="169" spans="1:4" ht="28.5" customHeight="1" thickBot="1">
       <c r="A169" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>3</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="170" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A170" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>1</v>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="171" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A171" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>0</v>
@@ -3445,7 +3445,7 @@
     </row>
     <row r="172" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A172" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>3</v>
@@ -3457,7 +3457,7 @@
     </row>
     <row r="173" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A173" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>3</v>
@@ -3469,7 +3469,7 @@
     </row>
     <row r="174" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A174" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B174" s="6" t="s">
         <v>1</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="175" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A175" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>4</v>
@@ -3493,7 +3493,7 @@
     </row>
     <row r="176" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A176" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>2</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="177" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A177" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>0</v>
@@ -3517,7 +3517,7 @@
     </row>
     <row r="178" spans="1:4" ht="16" thickBot="1">
       <c r="A178" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>4</v>
@@ -3529,7 +3529,7 @@
     </row>
     <row r="179" spans="1:4" ht="28.5" customHeight="1" thickBot="1">
       <c r="A179" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>3</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="180" spans="1:4" ht="16" thickBot="1">
       <c r="A180" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>0</v>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="181" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A181" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>3</v>
@@ -3565,7 +3565,7 @@
     </row>
     <row r="182" spans="1:4" ht="16" thickBot="1">
       <c r="A182" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>2</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="183" spans="1:4" ht="16" thickBot="1">
       <c r="A183" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>1</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="184" spans="1:4" ht="16" thickBot="1">
       <c r="A184" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>3</v>
@@ -3601,7 +3601,7 @@
     </row>
     <row r="185" spans="1:4" ht="28.5" customHeight="1" thickBot="1">
       <c r="A185" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>4</v>
@@ -3613,7 +3613,7 @@
     </row>
     <row r="186" spans="1:4" ht="16" thickBot="1">
       <c r="A186" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>0</v>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="187" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A187" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>3</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="188" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A188" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>0</v>
@@ -3649,7 +3649,7 @@
     </row>
     <row r="189" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A189" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>3</v>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="190" spans="1:4" ht="28.5" customHeight="1" thickBot="1">
       <c r="A190" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>0</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="191" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A191" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B191" s="6" t="s">
         <v>4</v>
@@ -3685,7 +3685,7 @@
     </row>
     <row r="192" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A192" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>2</v>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="193" spans="1:4" ht="16" thickBot="1">
       <c r="A193" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>3</v>
@@ -3709,7 +3709,7 @@
     </row>
     <row r="194" spans="1:4" ht="16" thickBot="1">
       <c r="A194" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>2</v>
@@ -3721,7 +3721,7 @@
     </row>
     <row r="195" spans="1:4" ht="16" thickBot="1">
       <c r="A195" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>4</v>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="196" spans="1:4" ht="16" thickBot="1">
       <c r="A196" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>1</v>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="197" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A197" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B197" s="6" t="s">
         <v>2</v>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="198" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A198" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B198" s="6" t="s">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="199" spans="1:4" ht="28.5" customHeight="1" thickBot="1">
       <c r="A199" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>4</v>
@@ -3781,7 +3781,7 @@
     </row>
     <row r="200" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A200" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B200" s="6" t="s">
         <v>1</v>
@@ -3793,7 +3793,7 @@
     </row>
     <row r="201" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A201" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B201" s="6" t="s">
         <v>0</v>
@@ -3805,7 +3805,7 @@
     </row>
     <row r="202" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A202" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B202" s="6" t="s">
         <v>4</v>
@@ -3817,7 +3817,7 @@
     </row>
     <row r="203" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A203" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>2</v>
@@ -3829,7 +3829,7 @@
     </row>
     <row r="204" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A204" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B204" s="6" t="s">
         <v>2</v>
@@ -3841,7 +3841,7 @@
     </row>
     <row r="205" spans="1:4" ht="28.5" customHeight="1" thickBot="1">
       <c r="A205" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B205" s="6" t="s">
         <v>3</v>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="206" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A206" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B206" s="6" t="s">
         <v>3</v>
@@ -3865,7 +3865,7 @@
     </row>
     <row r="207" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A207" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B207" s="6" t="s">
         <v>2</v>
@@ -3877,7 +3877,7 @@
     </row>
     <row r="208" spans="1:4" ht="28.5" customHeight="1" thickBot="1">
       <c r="A208" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B208" s="6" t="s">
         <v>2</v>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="209" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A209" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B209" s="6" t="s">
         <v>4</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="210" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A210" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B210" s="8" t="s">
         <v>0</v>
@@ -3913,7 +3913,7 @@
     </row>
     <row r="211" spans="1:4" ht="16" thickBot="1">
       <c r="A211" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>3</v>
@@ -3925,7 +3925,7 @@
     </row>
     <row r="212" spans="1:4" ht="28.5" customHeight="1" thickBot="1">
       <c r="A212" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B212" s="6" t="s">
         <v>1</v>
@@ -3937,7 +3937,7 @@
     </row>
     <row r="213" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A213" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B213" s="6" t="s">
         <v>2</v>
@@ -3949,7 +3949,7 @@
     </row>
     <row r="214" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A214" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B214" s="6" t="s">
         <v>4</v>
@@ -3961,7 +3961,7 @@
     </row>
     <row r="215" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A215" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B215" s="6" t="s">
         <v>0</v>
@@ -3973,7 +3973,7 @@
     </row>
     <row r="216" spans="1:4" ht="28.5" customHeight="1" thickBot="1">
       <c r="A216" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B216" s="6" t="s">
         <v>2</v>
@@ -3985,7 +3985,7 @@
     </row>
     <row r="217" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A217" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B217" s="6" t="s">
         <v>3</v>
@@ -3997,7 +3997,7 @@
     </row>
     <row r="218" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A218" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B218" s="6" t="s">
         <v>1</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="219" spans="1:4" ht="16" thickBot="1">
       <c r="A219" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>1</v>
@@ -4021,7 +4021,7 @@
     </row>
     <row r="220" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A220" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B220" s="6" t="s">
         <v>3</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="221" spans="1:4" ht="16" thickBot="1">
       <c r="A221" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>2</v>
@@ -4045,7 +4045,7 @@
     </row>
     <row r="222" spans="1:4" ht="16" thickBot="1">
       <c r="A222" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>4</v>
@@ -4057,7 +4057,7 @@
     </row>
     <row r="223" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A223" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B223" s="6" t="s">
         <v>4</v>
@@ -4069,7 +4069,7 @@
     </row>
     <row r="224" spans="1:4" ht="28.5" customHeight="1" thickBot="1">
       <c r="A224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B224" s="6" t="s">
         <v>4</v>
@@ -4081,7 +4081,7 @@
     </row>
     <row r="225" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A225" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B225" s="6" t="s">
         <v>0</v>
@@ -4093,7 +4093,7 @@
     </row>
     <row r="226" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A226" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B226" s="6" t="s">
         <v>0</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="227" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A227" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B227" s="6" t="s">
         <v>4</v>
@@ -4117,7 +4117,7 @@
     </row>
     <row r="228" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A228" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B228" s="6" t="s">
         <v>4</v>
@@ -4129,7 +4129,7 @@
     </row>
     <row r="229" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A229" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B229" s="6" t="s">
         <v>3</v>
@@ -4141,7 +4141,7 @@
     </row>
     <row r="230" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A230" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B230" s="6" t="s">
         <v>3</v>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="231" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A231" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B231" s="6" t="s">
         <v>2</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="232" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A232" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B232" s="6" t="s">
         <v>3</v>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="233" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A233" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B233" s="6" t="s">
         <v>1</v>
@@ -4189,7 +4189,7 @@
     </row>
     <row r="234" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A234" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B234" s="6" t="s">
         <v>0</v>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="235" spans="1:4" ht="16" thickBot="1">
       <c r="A235" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>2</v>
@@ -4213,7 +4213,7 @@
     </row>
     <row r="236" spans="1:4" ht="16" thickBot="1">
       <c r="A236" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>0</v>
@@ -4225,7 +4225,7 @@
     </row>
     <row r="237" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A237" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B237" s="6" t="s">
         <v>4</v>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="238" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A238" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B238" s="6" t="s">
         <v>2</v>
@@ -4249,7 +4249,7 @@
     </row>
     <row r="239" spans="1:4" ht="28.5" customHeight="1" thickBot="1">
       <c r="A239" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B239" s="6" t="s">
         <v>3</v>
@@ -4261,7 +4261,7 @@
     </row>
     <row r="240" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
       <c r="A240" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B240" s="6" t="s">
         <v>4</v>
@@ -4273,7 +4273,7 @@
     </row>
     <row r="241" spans="1:4" ht="14.5" customHeight="1">
       <c r="A241" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B241" s="6" t="s">
         <v>4</v>
